--- a/data/pca/factorExposure/factorExposure_2013-05-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-03.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0004344410671266649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001948163556539931</v>
+      </c>
+      <c r="C2">
+        <v>0.03337557491210364</v>
+      </c>
+      <c r="D2">
+        <v>0.006946739362274346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001914856604226234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005990554978632487</v>
+      </c>
+      <c r="C4">
+        <v>0.08475646355839003</v>
+      </c>
+      <c r="D4">
+        <v>0.0783510749770138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-3.30281525261595e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01314711349740835</v>
+      </c>
+      <c r="C6">
+        <v>0.1075825979143608</v>
+      </c>
+      <c r="D6">
+        <v>0.03545395122156923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.003256464855854222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004752718360018813</v>
+      </c>
+      <c r="C7">
+        <v>0.05398432681956385</v>
+      </c>
+      <c r="D7">
+        <v>0.03522763327730055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0006096886579378989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005580644218996156</v>
+      </c>
+      <c r="C8">
+        <v>0.03706439297072592</v>
+      </c>
+      <c r="D8">
+        <v>0.03888071030682476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005435450684476432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003987002189890036</v>
+      </c>
+      <c r="C9">
+        <v>0.07020027879916892</v>
+      </c>
+      <c r="D9">
+        <v>0.07154306019404907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.003052228287096745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005622097820531284</v>
+      </c>
+      <c r="C10">
+        <v>0.07306811929342347</v>
+      </c>
+      <c r="D10">
+        <v>-0.2135396827542553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003910440558347244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005200805426710405</v>
+      </c>
+      <c r="C11">
+        <v>0.07829526949927403</v>
+      </c>
+      <c r="D11">
+        <v>0.06538201962103775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0002364956540851914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004020354977088676</v>
+      </c>
+      <c r="C12">
+        <v>0.06409361763374984</v>
+      </c>
+      <c r="D12">
+        <v>0.04746651152835626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002714662632951546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008627982556193906</v>
+      </c>
+      <c r="C13">
+        <v>0.06950579057171571</v>
+      </c>
+      <c r="D13">
+        <v>0.06370698051610382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002562569115982441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001496831996984121</v>
+      </c>
+      <c r="C14">
+        <v>0.04621495828246871</v>
+      </c>
+      <c r="D14">
+        <v>0.01438647179990197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.002154071758954735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005878345486805502</v>
+      </c>
+      <c r="C15">
+        <v>0.0393625821537566</v>
+      </c>
+      <c r="D15">
+        <v>0.03318290474129756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002089493723720753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004878364349487139</v>
+      </c>
+      <c r="C16">
+        <v>0.06478884204831221</v>
+      </c>
+      <c r="D16">
+        <v>0.05008566958645203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0004941782541838067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008896632720572317</v>
+      </c>
+      <c r="C20">
+        <v>0.06489414601303339</v>
+      </c>
+      <c r="D20">
+        <v>0.0557860407525699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005691927991738283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009817082984547558</v>
+      </c>
+      <c r="C21">
+        <v>0.0229085151781394</v>
+      </c>
+      <c r="D21">
+        <v>0.03515971922964478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01670811012252468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006866622990001292</v>
+      </c>
+      <c r="C22">
+        <v>0.09274211686673281</v>
+      </c>
+      <c r="D22">
+        <v>0.1029774218608317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01704666042391728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.00669004615159155</v>
+      </c>
+      <c r="C23">
+        <v>0.09358966436704289</v>
+      </c>
+      <c r="D23">
+        <v>0.1033700724473336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.00291319487454814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004871675775346044</v>
+      </c>
+      <c r="C24">
+        <v>0.07326695546193716</v>
+      </c>
+      <c r="D24">
+        <v>0.0618248021460121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004730437475151998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002720859949522931</v>
+      </c>
+      <c r="C25">
+        <v>0.07737600244219532</v>
+      </c>
+      <c r="D25">
+        <v>0.06665449670805675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006526201304612083</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003598336657287882</v>
+      </c>
+      <c r="C26">
+        <v>0.04063859721173734</v>
+      </c>
+      <c r="D26">
+        <v>0.02902949353237594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.006645723074750179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0004550519657432045</v>
+      </c>
+      <c r="C28">
+        <v>0.122128787569883</v>
+      </c>
+      <c r="D28">
+        <v>-0.3106566177327827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.002181916429169698</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003232564889413701</v>
+      </c>
+      <c r="C29">
+        <v>0.04875744270998892</v>
+      </c>
+      <c r="D29">
+        <v>0.01372901938368063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.004798571242987949</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008597240080898632</v>
+      </c>
+      <c r="C30">
+        <v>0.1379154260670957</v>
+      </c>
+      <c r="D30">
+        <v>0.107933437467939</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.000347392870103488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00607859023455336</v>
+      </c>
+      <c r="C31">
+        <v>0.04596315713742622</v>
+      </c>
+      <c r="D31">
+        <v>0.03121345711123129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.00146072107494621</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004054353478402099</v>
+      </c>
+      <c r="C32">
+        <v>0.04070713844242454</v>
+      </c>
+      <c r="D32">
+        <v>0.01677398393860903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003821559347445171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007769932701149308</v>
+      </c>
+      <c r="C33">
+        <v>0.08328623201660992</v>
+      </c>
+      <c r="D33">
+        <v>0.07563627366346325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004600982589425068</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003792595693513536</v>
+      </c>
+      <c r="C34">
+        <v>0.05785548026063696</v>
+      </c>
+      <c r="D34">
+        <v>0.04761989993666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002898439255114359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004795365972854799</v>
+      </c>
+      <c r="C35">
+        <v>0.03893038184722275</v>
+      </c>
+      <c r="D35">
+        <v>0.01362817516427877</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004986833880271493</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001380256798273775</v>
+      </c>
+      <c r="C36">
+        <v>0.02386411668176441</v>
+      </c>
+      <c r="D36">
+        <v>0.02301154455462031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.00150029552825288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009230256286525284</v>
+      </c>
+      <c r="C38">
+        <v>0.03252110119308307</v>
+      </c>
+      <c r="D38">
+        <v>0.01982529126282495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01333592740172711</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009660334255020434</v>
+      </c>
+      <c r="C39">
+        <v>0.1156388942491658</v>
+      </c>
+      <c r="D39">
+        <v>0.08470456342734181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008255816100200628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002132109965182585</v>
+      </c>
+      <c r="C40">
+        <v>0.08710205177169905</v>
+      </c>
+      <c r="D40">
+        <v>0.02099060776758518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0008374210270797043</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007357310964076513</v>
+      </c>
+      <c r="C41">
+        <v>0.03931668682242555</v>
+      </c>
+      <c r="D41">
+        <v>0.03469716159770322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003484297315152621</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003554338711283087</v>
+      </c>
+      <c r="C43">
+        <v>0.0506582411101844</v>
+      </c>
+      <c r="D43">
+        <v>0.02546330860178272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002613137269782408</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003490460039731563</v>
+      </c>
+      <c r="C44">
+        <v>0.1085774287043115</v>
+      </c>
+      <c r="D44">
+        <v>0.08458207610015311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.00258670431685519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002292765807961687</v>
+      </c>
+      <c r="C46">
+        <v>0.03469299015124267</v>
+      </c>
+      <c r="D46">
+        <v>0.03081693312278371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0007208912168509639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002608425528763742</v>
+      </c>
+      <c r="C47">
+        <v>0.03847180563651614</v>
+      </c>
+      <c r="D47">
+        <v>0.02335102024401257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003718530687599711</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006361337346633959</v>
+      </c>
+      <c r="C48">
+        <v>0.02839877103997116</v>
+      </c>
+      <c r="D48">
+        <v>0.03310206555956768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01207537220635159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01423121554673987</v>
+      </c>
+      <c r="C49">
+        <v>0.1725159213328633</v>
+      </c>
+      <c r="D49">
+        <v>0.02825575705419176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.00133553513760865</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003588116952374679</v>
+      </c>
+      <c r="C50">
+        <v>0.0429868022268713</v>
+      </c>
+      <c r="D50">
+        <v>0.03569110814418158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001803306498783989</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004252961479470492</v>
+      </c>
+      <c r="C51">
+        <v>0.0204702935792633</v>
+      </c>
+      <c r="D51">
+        <v>0.03262807448422606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0002471402568733558</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02009680302604536</v>
+      </c>
+      <c r="C53">
+        <v>0.1659919773750312</v>
+      </c>
+      <c r="D53">
+        <v>0.04720714711079163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0002745199859977291</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008592300757146031</v>
+      </c>
+      <c r="C54">
+        <v>0.05534841662895414</v>
+      </c>
+      <c r="D54">
+        <v>0.0425504265339659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004263473796203687</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.00916682100826435</v>
+      </c>
+      <c r="C55">
+        <v>0.1062548833157676</v>
+      </c>
+      <c r="D55">
+        <v>0.05219656651118988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002380201609313657</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01939256079346696</v>
+      </c>
+      <c r="C56">
+        <v>0.1725232386026967</v>
+      </c>
+      <c r="D56">
+        <v>0.04499983080704289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008600271050655039</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01922686559271445</v>
+      </c>
+      <c r="C58">
+        <v>0.1036018177941993</v>
+      </c>
+      <c r="D58">
+        <v>0.0698611236150509</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.008418379685837528</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009559096600750478</v>
+      </c>
+      <c r="C59">
+        <v>0.1671710709928462</v>
+      </c>
+      <c r="D59">
+        <v>-0.285609879159392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005829690514349126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02325878173313769</v>
+      </c>
+      <c r="C60">
+        <v>0.2217938624900448</v>
+      </c>
+      <c r="D60">
+        <v>0.02889845085976897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01450262190308618</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002037736850815742</v>
+      </c>
+      <c r="C61">
+        <v>0.09486231274854584</v>
+      </c>
+      <c r="D61">
+        <v>0.06227490154796451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1770137108870891</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1436208321726406</v>
+      </c>
+      <c r="C62">
+        <v>0.07955576981452346</v>
+      </c>
+      <c r="D62">
+        <v>0.05564606898770141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001768986069391715</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006356508648945642</v>
+      </c>
+      <c r="C63">
+        <v>0.05975803449464998</v>
+      </c>
+      <c r="D63">
+        <v>0.02470624193580695</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005803844087529381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01468684979187406</v>
+      </c>
+      <c r="C64">
+        <v>0.1021654328316383</v>
+      </c>
+      <c r="D64">
+        <v>0.06551969423559564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001117937304500608</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01694069924656905</v>
+      </c>
+      <c r="C65">
+        <v>0.1152150929715035</v>
+      </c>
+      <c r="D65">
+        <v>0.02505201250898887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008673447382604773</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01222237372601325</v>
+      </c>
+      <c r="C66">
+        <v>0.154758847679959</v>
+      </c>
+      <c r="D66">
+        <v>0.1216150178335281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002748169049237169</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01535717104201333</v>
+      </c>
+      <c r="C67">
+        <v>0.06264129695742608</v>
+      </c>
+      <c r="D67">
+        <v>0.03036621677166673</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.008891431104432319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001117186027095737</v>
+      </c>
+      <c r="C68">
+        <v>0.1035966281081302</v>
+      </c>
+      <c r="D68">
+        <v>-0.2594646273276026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002959398378696305</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005848750986807536</v>
+      </c>
+      <c r="C69">
+        <v>0.04832711591808976</v>
+      </c>
+      <c r="D69">
+        <v>0.04305987028561209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00172572090975916</v>
+      </c>
+      <c r="C70">
+        <v>0.002145816273783756</v>
+      </c>
+      <c r="D70">
+        <v>0.00228496578379946</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004796729300470978</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006077219388073527</v>
+      </c>
+      <c r="C71">
+        <v>0.1074601394685644</v>
+      </c>
+      <c r="D71">
+        <v>-0.2849988923387405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.007617852947585282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01535121437867697</v>
+      </c>
+      <c r="C72">
+        <v>0.1492454678294412</v>
+      </c>
+      <c r="D72">
+        <v>0.02113035400162593</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0109950303183304</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02919572867879293</v>
+      </c>
+      <c r="C73">
+        <v>0.2812328923118228</v>
+      </c>
+      <c r="D73">
+        <v>0.04665985503148031</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004437332408962231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001267538254893624</v>
+      </c>
+      <c r="C74">
+        <v>0.1040441193086852</v>
+      </c>
+      <c r="D74">
+        <v>0.0444953913305997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.005569693249525334</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01062592622657633</v>
+      </c>
+      <c r="C75">
+        <v>0.132324694131199</v>
+      </c>
+      <c r="D75">
+        <v>0.02616693423099324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01135015075811879</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02103314780142186</v>
+      </c>
+      <c r="C76">
+        <v>0.1475536353553451</v>
+      </c>
+      <c r="D76">
+        <v>0.07052733597349101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.002259628184578194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02412860254578755</v>
+      </c>
+      <c r="C77">
+        <v>0.1351282577207509</v>
+      </c>
+      <c r="D77">
+        <v>0.06495352656620981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008757659368438637</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01414288138716334</v>
+      </c>
+      <c r="C78">
+        <v>0.09270547096613962</v>
+      </c>
+      <c r="D78">
+        <v>0.06748661802385647</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02620595548653481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0367411395784421</v>
+      </c>
+      <c r="C79">
+        <v>0.1571658204235272</v>
+      </c>
+      <c r="D79">
+        <v>0.03161626070167596</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004473657277179212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01030997592773133</v>
+      </c>
+      <c r="C80">
+        <v>0.04104370093567224</v>
+      </c>
+      <c r="D80">
+        <v>0.03334830965258166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.002018666520239076</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01437675394424572</v>
+      </c>
+      <c r="C81">
+        <v>0.1232976224758004</v>
+      </c>
+      <c r="D81">
+        <v>0.05681137702771264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005568723274362183</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01951215147798419</v>
+      </c>
+      <c r="C82">
+        <v>0.1418474470118876</v>
+      </c>
+      <c r="D82">
+        <v>0.04472453028889485</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009731009128025115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009935762433519374</v>
+      </c>
+      <c r="C83">
+        <v>0.05678753873891713</v>
+      </c>
+      <c r="D83">
+        <v>0.04821079675119879</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01303413294679613</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.011601470201246</v>
+      </c>
+      <c r="C84">
+        <v>0.0319317267449649</v>
+      </c>
+      <c r="D84">
+        <v>-0.003133563063565878</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01507291457375455</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02777711355237888</v>
+      </c>
+      <c r="C85">
+        <v>0.1283897785575222</v>
+      </c>
+      <c r="D85">
+        <v>0.04936781210692425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.00302798648891035</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005451388382860684</v>
+      </c>
+      <c r="C86">
+        <v>0.05006981626758027</v>
+      </c>
+      <c r="D86">
+        <v>0.02032084878946463</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.007703648840362457</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01012650592521113</v>
+      </c>
+      <c r="C87">
+        <v>0.1294668896545741</v>
+      </c>
+      <c r="D87">
+        <v>0.07687247558320594</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01577653763739667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002882699882179682</v>
+      </c>
+      <c r="C88">
+        <v>0.06903825376831269</v>
+      </c>
+      <c r="D88">
+        <v>0.01487907751781535</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01757297516127863</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0009900048538859984</v>
+      </c>
+      <c r="C89">
+        <v>0.1582171808566713</v>
+      </c>
+      <c r="D89">
+        <v>-0.3375254381936442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.006428799027996555</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007432622475039589</v>
+      </c>
+      <c r="C90">
+        <v>0.1380071534765024</v>
+      </c>
+      <c r="D90">
+        <v>-0.321996039277977</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0004709481985223677</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01010877809591543</v>
+      </c>
+      <c r="C91">
+        <v>0.1051042059761037</v>
+      </c>
+      <c r="D91">
+        <v>0.02017999432925621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01425610229646038</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000744495606203123</v>
+      </c>
+      <c r="C92">
+        <v>0.1469694925320229</v>
+      </c>
+      <c r="D92">
+        <v>-0.3302861444103449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.003416090978368299</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005353914656556364</v>
+      </c>
+      <c r="C93">
+        <v>0.1217252314151346</v>
+      </c>
+      <c r="D93">
+        <v>-0.3148880788942545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.003999042392708325</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02208405774014368</v>
+      </c>
+      <c r="C94">
+        <v>0.1558165343668442</v>
+      </c>
+      <c r="D94">
+        <v>0.03302401343863629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006607820859425064</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01603028866325627</v>
+      </c>
+      <c r="C95">
+        <v>0.1242038575957923</v>
+      </c>
+      <c r="D95">
+        <v>0.0651725466930157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.00449828847101947</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03451191473030214</v>
+      </c>
+      <c r="C97">
+        <v>0.1796642533779155</v>
+      </c>
+      <c r="D97">
+        <v>0.03875441990980166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.006555698673351332</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03630904243664929</v>
+      </c>
+      <c r="C98">
+        <v>0.2533513763493282</v>
+      </c>
+      <c r="D98">
+        <v>0.04735840633535144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9818667879050211</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827817132401818</v>
+      </c>
+      <c r="C99">
+        <v>-0.1099465346762364</v>
+      </c>
+      <c r="D99">
+        <v>-0.03098507261755107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.002136209492813286</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003275759340269757</v>
+      </c>
+      <c r="C101">
+        <v>0.04877977351197236</v>
+      </c>
+      <c r="D101">
+        <v>0.01413798385281485</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
